--- a/CASOS DE USO - Loca Cine.xlsx
+++ b/CASOS DE USO - Loca Cine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6930af1f98e7c49c/Desktop/Estudos/Loca-Cine/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="632" documentId="8_{C67DE7D6-7338-4F31-9BA3-434AC9A3C20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22CB5548-3918-491F-BB96-10D83F57481B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47656769-DE00-43A0-B363-ABC646A5A392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E65B874-4DE5-4317-95CC-58547EACD01C}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E65B874-4DE5-4317-95CC-58547EACD01C}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="231">
   <si>
     <t>Código</t>
   </si>
@@ -1291,9 +1291,6 @@
       </rPr>
       <t>UC14 – Gerenciar Status de Locação</t>
     </r>
-  </si>
-  <si>
-    <t>Diagrama UML</t>
   </si>
 </sst>
 </file>
@@ -1433,41 +1430,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1475,9 +1448,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1488,6 +1458,33 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1518,9 +1515,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>11430</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1536,9 +1533,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7696200" cy="1085850"/>
+          <a:ext cx="7599045" cy="1112520"/>
           <a:chOff x="0" y="0"/>
-          <a:chExt cx="7864172" cy="1085850"/>
+          <a:chExt cx="7856296" cy="1085850"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -1555,9 +1552,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="0" y="0"/>
-            <a:ext cx="7864172" cy="1085850"/>
+            <a:ext cx="7856296" cy="1085850"/>
             <a:chOff x="0" y="0"/>
-            <a:chExt cx="7864172" cy="1085850"/>
+            <a:chExt cx="7856296" cy="1085850"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:pic>
@@ -1623,7 +1620,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm flipH="1">
-              <a:off x="2377772" y="0"/>
+              <a:off x="2369896" y="0"/>
               <a:ext cx="5486400" cy="1085850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1694,9 +1691,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>11430</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1713,9 +1710,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7696200" cy="1085850"/>
+          <a:ext cx="7599045" cy="1112520"/>
           <a:chOff x="0" y="0"/>
-          <a:chExt cx="7864172" cy="1085850"/>
+          <a:chExt cx="7856296" cy="1085850"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -1732,9 +1729,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="0" y="0"/>
-            <a:ext cx="7864172" cy="1085850"/>
+            <a:ext cx="7856296" cy="1085850"/>
             <a:chOff x="0" y="0"/>
-            <a:chExt cx="7864172" cy="1085850"/>
+            <a:chExt cx="7856296" cy="1085850"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:pic>
@@ -1800,7 +1797,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm flipH="1">
-              <a:off x="2377772" y="0"/>
+              <a:off x="2369896" y="0"/>
               <a:ext cx="5486400" cy="1085850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1871,9 +1868,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>11430</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1890,9 +1887,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7696200" cy="1085850"/>
+          <a:ext cx="7599045" cy="1112520"/>
           <a:chOff x="0" y="0"/>
-          <a:chExt cx="7864172" cy="1085850"/>
+          <a:chExt cx="7856296" cy="1085850"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -1909,9 +1906,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="0" y="0"/>
-            <a:ext cx="7864172" cy="1085850"/>
+            <a:ext cx="7856296" cy="1085850"/>
             <a:chOff x="0" y="0"/>
-            <a:chExt cx="7864172" cy="1085850"/>
+            <a:chExt cx="7856296" cy="1085850"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:pic>
@@ -1977,7 +1974,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm flipH="1">
-              <a:off x="2377772" y="0"/>
+              <a:off x="2369896" y="0"/>
               <a:ext cx="5486400" cy="1085850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2048,9 +2045,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>11430</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2067,9 +2064,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7696200" cy="1085850"/>
+          <a:ext cx="7599045" cy="1112520"/>
           <a:chOff x="0" y="0"/>
-          <a:chExt cx="7864172" cy="1085850"/>
+          <a:chExt cx="7856296" cy="1085850"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -2086,9 +2083,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="0" y="0"/>
-            <a:ext cx="7864172" cy="1085850"/>
+            <a:ext cx="7856296" cy="1085850"/>
             <a:chOff x="0" y="0"/>
-            <a:chExt cx="7864172" cy="1085850"/>
+            <a:chExt cx="7856296" cy="1085850"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:pic>
@@ -2154,7 +2151,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm flipH="1">
-              <a:off x="2377772" y="0"/>
+              <a:off x="2369896" y="0"/>
               <a:ext cx="5486400" cy="1085850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2225,9 +2222,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>11430</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2244,9 +2241,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7696200" cy="1085850"/>
+          <a:ext cx="7599045" cy="1112520"/>
           <a:chOff x="0" y="0"/>
-          <a:chExt cx="7864172" cy="1085850"/>
+          <a:chExt cx="7856296" cy="1085850"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -2263,9 +2260,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="0" y="0"/>
-            <a:ext cx="7864172" cy="1085850"/>
+            <a:ext cx="7856296" cy="1085850"/>
             <a:chOff x="0" y="0"/>
-            <a:chExt cx="7864172" cy="1085850"/>
+            <a:chExt cx="7856296" cy="1085850"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:pic>
@@ -2331,7 +2328,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm flipH="1">
-              <a:off x="2377772" y="0"/>
+              <a:off x="2369896" y="0"/>
               <a:ext cx="5486400" cy="1085850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2402,9 +2399,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>11430</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2421,9 +2418,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7696200" cy="1085850"/>
+          <a:ext cx="7599045" cy="1112520"/>
           <a:chOff x="0" y="0"/>
-          <a:chExt cx="7864172" cy="1085850"/>
+          <a:chExt cx="7856296" cy="1085850"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -2440,9 +2437,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="0" y="0"/>
-            <a:ext cx="7864172" cy="1085850"/>
+            <a:ext cx="7856296" cy="1085850"/>
             <a:chOff x="0" y="0"/>
-            <a:chExt cx="7864172" cy="1085850"/>
+            <a:chExt cx="7856296" cy="1085850"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:pic>
@@ -2508,7 +2505,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm flipH="1">
-              <a:off x="2377772" y="0"/>
+              <a:off x="2369896" y="0"/>
               <a:ext cx="5486400" cy="1085850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2579,9 +2576,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>11430</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2598,9 +2595,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7696200" cy="1085850"/>
+          <a:ext cx="7599045" cy="1112520"/>
           <a:chOff x="0" y="0"/>
-          <a:chExt cx="7864172" cy="1085850"/>
+          <a:chExt cx="7856296" cy="1085850"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -2617,9 +2614,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="0" y="0"/>
-            <a:ext cx="7864172" cy="1085850"/>
+            <a:ext cx="7856296" cy="1085850"/>
             <a:chOff x="0" y="0"/>
-            <a:chExt cx="7864172" cy="1085850"/>
+            <a:chExt cx="7856296" cy="1085850"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:pic>
@@ -2685,7 +2682,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm flipH="1">
-              <a:off x="2377772" y="0"/>
+              <a:off x="2369896" y="0"/>
               <a:ext cx="5486400" cy="1085850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2756,9 +2753,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>11430</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2775,9 +2772,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7696200" cy="1085850"/>
+          <a:ext cx="7599045" cy="1112520"/>
           <a:chOff x="0" y="0"/>
-          <a:chExt cx="7864172" cy="1085850"/>
+          <a:chExt cx="7856296" cy="1085850"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -2794,9 +2791,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="0" y="0"/>
-            <a:ext cx="7864172" cy="1085850"/>
+            <a:ext cx="7856296" cy="1085850"/>
             <a:chOff x="0" y="0"/>
-            <a:chExt cx="7864172" cy="1085850"/>
+            <a:chExt cx="7856296" cy="1085850"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:pic>
@@ -2862,7 +2859,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm flipH="1">
-              <a:off x="2377772" y="0"/>
+              <a:off x="2369896" y="0"/>
               <a:ext cx="5486400" cy="1085850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2933,9 +2930,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>11430</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2952,9 +2949,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7696200" cy="1085850"/>
+          <a:ext cx="7599045" cy="1112520"/>
           <a:chOff x="0" y="0"/>
-          <a:chExt cx="7864172" cy="1085850"/>
+          <a:chExt cx="7856296" cy="1085850"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -2971,9 +2968,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="0" y="0"/>
-            <a:ext cx="7864172" cy="1085850"/>
+            <a:ext cx="7856296" cy="1085850"/>
             <a:chOff x="0" y="0"/>
-            <a:chExt cx="7864172" cy="1085850"/>
+            <a:chExt cx="7856296" cy="1085850"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:pic>
@@ -3039,7 +3036,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm flipH="1">
-              <a:off x="2377772" y="0"/>
+              <a:off x="2369896" y="0"/>
               <a:ext cx="5486400" cy="1085850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3110,9 +3107,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>11430</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3129,9 +3126,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7696200" cy="1085850"/>
+          <a:ext cx="7599045" cy="1112520"/>
           <a:chOff x="0" y="0"/>
-          <a:chExt cx="7864172" cy="1085850"/>
+          <a:chExt cx="7856296" cy="1085850"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -3148,9 +3145,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="0" y="0"/>
-            <a:ext cx="7864172" cy="1085850"/>
+            <a:ext cx="7856296" cy="1085850"/>
             <a:chOff x="0" y="0"/>
-            <a:chExt cx="7864172" cy="1085850"/>
+            <a:chExt cx="7856296" cy="1085850"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:pic>
@@ -3216,7 +3213,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm flipH="1">
-              <a:off x="2377772" y="0"/>
+              <a:off x="2369896" y="0"/>
               <a:ext cx="5486400" cy="1085850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3289,7 +3286,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3306,9 +3303,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7696200" cy="1085850"/>
+          <a:ext cx="7608570" cy="1110615"/>
           <a:chOff x="0" y="0"/>
-          <a:chExt cx="7864172" cy="1085850"/>
+          <a:chExt cx="7856300" cy="1085850"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -3325,9 +3322,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="0" y="0"/>
-            <a:ext cx="7864172" cy="1085850"/>
+            <a:ext cx="7856300" cy="1085850"/>
             <a:chOff x="0" y="0"/>
-            <a:chExt cx="7864172" cy="1085850"/>
+            <a:chExt cx="7856300" cy="1085850"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:pic>
@@ -3393,7 +3390,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm flipH="1">
-              <a:off x="2377772" y="0"/>
+              <a:off x="2369900" y="0"/>
               <a:ext cx="5486400" cy="1085850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3464,9 +3461,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>11430</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3483,9 +3480,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7696200" cy="1085850"/>
+          <a:ext cx="7602631" cy="1105796"/>
           <a:chOff x="0" y="0"/>
-          <a:chExt cx="7864172" cy="1085850"/>
+          <a:chExt cx="7856296" cy="1085850"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -3502,9 +3499,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="0" y="0"/>
-            <a:ext cx="7864172" cy="1085850"/>
+            <a:ext cx="7856296" cy="1085850"/>
             <a:chOff x="0" y="0"/>
-            <a:chExt cx="7864172" cy="1085850"/>
+            <a:chExt cx="7856296" cy="1085850"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:pic>
@@ -3570,7 +3567,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm flipH="1">
-              <a:off x="2377772" y="0"/>
+              <a:off x="2369896" y="0"/>
               <a:ext cx="5486400" cy="1085850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3643,7 +3640,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3660,9 +3657,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7696200" cy="1085850"/>
+          <a:ext cx="7608570" cy="1110615"/>
           <a:chOff x="0" y="0"/>
-          <a:chExt cx="7864172" cy="1085850"/>
+          <a:chExt cx="7856300" cy="1085850"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -3679,9 +3676,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="0" y="0"/>
-            <a:ext cx="7864172" cy="1085850"/>
+            <a:ext cx="7856300" cy="1085850"/>
             <a:chOff x="0" y="0"/>
-            <a:chExt cx="7864172" cy="1085850"/>
+            <a:chExt cx="7856300" cy="1085850"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:pic>
@@ -3747,7 +3744,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm flipH="1">
-              <a:off x="2377772" y="0"/>
+              <a:off x="2369900" y="0"/>
               <a:ext cx="5486400" cy="1085850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3818,9 +3815,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>11430</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3837,9 +3834,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7696200" cy="1085850"/>
+          <a:ext cx="7599045" cy="1112520"/>
           <a:chOff x="0" y="0"/>
-          <a:chExt cx="7864172" cy="1085850"/>
+          <a:chExt cx="7856296" cy="1085850"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -3856,9 +3853,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="0" y="0"/>
-            <a:ext cx="7864172" cy="1085850"/>
+            <a:ext cx="7856296" cy="1085850"/>
             <a:chOff x="0" y="0"/>
-            <a:chExt cx="7864172" cy="1085850"/>
+            <a:chExt cx="7856296" cy="1085850"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:pic>
@@ -3924,7 +3921,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm flipH="1">
-              <a:off x="2377772" y="0"/>
+              <a:off x="2369896" y="0"/>
               <a:ext cx="5486400" cy="1085850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3995,9 +3992,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>11430</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4014,9 +4011,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7696200" cy="1085850"/>
+          <a:ext cx="7599045" cy="1112520"/>
           <a:chOff x="0" y="0"/>
-          <a:chExt cx="7864172" cy="1085850"/>
+          <a:chExt cx="7856296" cy="1085850"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -4033,9 +4030,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="0" y="0"/>
-            <a:ext cx="7864172" cy="1085850"/>
+            <a:ext cx="7856296" cy="1085850"/>
             <a:chOff x="0" y="0"/>
-            <a:chExt cx="7864172" cy="1085850"/>
+            <a:chExt cx="7856296" cy="1085850"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:pic>
@@ -4101,7 +4098,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm flipH="1">
-              <a:off x="2377772" y="0"/>
+              <a:off x="2369896" y="0"/>
               <a:ext cx="5486400" cy="1085850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4480,517 +4477,517 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4A9FA8-5815-4DE6-9BBC-7BEE32E6D59C}">
   <dimension ref="B1:L36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:I30"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="13" max="13" width="3.88671875" customWidth="1"/>
-    <col min="14" max="14" width="7.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E2" s="5" t="s">
+    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="20">
         <v>1</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E3" s="5" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8">
+      <c r="F3" s="4"/>
+      <c r="G3" s="21">
         <v>45823</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E4" s="5" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="6" spans="2:12" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="6" spans="2:12" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="11" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="11" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-    </row>
-    <row r="20" spans="2:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="B20" s="13" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="21" t="s">
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="21" t="s">
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="21" t="s">
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="21" t="s">
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9" t="s">
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="21" t="s">
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="21" t="s">
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="21" t="s">
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="21" t="s">
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9" t="s">
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="21" t="s">
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9" t="s">
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="21" t="s">
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9" t="s">
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="21" t="s">
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9" t="s">
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="21" t="s">
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9" t="s">
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="21" t="s">
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9" t="s">
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="21" t="s">
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9" t="s">
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-    </row>
-    <row r="36" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B36" s="22" t="s">
-        <v>231</v>
-      </c>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+    </row>
+    <row r="36" spans="2:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="B36" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:L19"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="G3:L3"/>
     <mergeCell ref="B8:L11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="C33:I33"/>
@@ -5007,6 +5004,13 @@
     <mergeCell ref="C23:I23"/>
     <mergeCell ref="C24:I24"/>
     <mergeCell ref="C25:I25"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:L19"/>
     <mergeCell ref="C26:I26"/>
     <mergeCell ref="C27:I27"/>
     <mergeCell ref="J29:L29"/>
@@ -5016,15 +5020,6 @@
     <mergeCell ref="J28:L28"/>
     <mergeCell ref="C29:I29"/>
     <mergeCell ref="C30:I30"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="G3:L3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -5053,170 +5048,170 @@
   <dimension ref="B1:L29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="13" max="13" width="3.88671875" customWidth="1"/>
-    <col min="14" max="14" width="7.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E2" s="5" t="s">
+    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="20">
         <v>1</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E3" s="5" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8">
+      <c r="F3" s="4"/>
+      <c r="G3" s="21">
         <v>45823</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E4" s="5" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="6" spans="2:12" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-    </row>
-    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="6" spans="2:12" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="16" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="16" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="16" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="4" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="4" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>162</v>
       </c>
     </row>
@@ -5237,165 +5232,165 @@
   <dimension ref="B1:L28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="13" max="13" width="3.88671875" customWidth="1"/>
-    <col min="14" max="14" width="7.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E2" s="5" t="s">
+    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="20">
         <v>1</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E3" s="5" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8">
+      <c r="F3" s="4"/>
+      <c r="G3" s="21">
         <v>45823</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E4" s="5" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="6" spans="2:12" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-    </row>
-    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="6" spans="2:12" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="16" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="16" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="16" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="4" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5416,208 +5411,208 @@
   <dimension ref="B1:L33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="13" max="13" width="3.88671875" customWidth="1"/>
-    <col min="14" max="14" width="7.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E2" s="5" t="s">
+    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="20">
         <v>1</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E3" s="5" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8">
+      <c r="F3" s="4"/>
+      <c r="G3" s="21">
         <v>45823</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E4" s="5" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="6" spans="2:12" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-    </row>
-    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="B8" s="20" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="6" spans="2:12" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="16" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="17" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="17" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="17" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="16" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="17" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="17" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="16" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="4" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="4" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="4" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5639,198 +5634,198 @@
   <dimension ref="B1:L29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="13" max="13" width="3.88671875" customWidth="1"/>
-    <col min="14" max="14" width="7.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E2" s="5" t="s">
+    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="20">
         <v>1</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E3" s="5" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8">
+      <c r="F3" s="4"/>
+      <c r="G3" s="21">
         <v>45823</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E4" s="5" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="6" spans="2:12" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-    </row>
-    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="B8" s="20" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="6" spans="2:12" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
+    <row r="10" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-    </row>
-    <row r="11" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+    </row>
+    <row r="11" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="16" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="16" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="17" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="17" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="16" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="4" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5855,205 +5850,205 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="13" max="13" width="3.88671875" customWidth="1"/>
-    <col min="14" max="14" width="7.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E2" s="5" t="s">
+    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="20">
         <v>1</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E3" s="5" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8">
+      <c r="F3" s="4"/>
+      <c r="G3" s="21">
         <v>45823</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E4" s="5" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="6" spans="2:12" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-    </row>
-    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="B8" s="20" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="6" spans="2:12" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
+    <row r="10" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-    </row>
-    <row r="11" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-    </row>
-    <row r="12" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+    </row>
+    <row r="11" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+    </row>
+    <row r="12" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="16" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="17" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="16" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="17" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="16" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="4" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>214</v>
       </c>
     </row>
@@ -6075,228 +6070,228 @@
   <dimension ref="B1:L33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="13" max="13" width="3.88671875" customWidth="1"/>
-    <col min="14" max="14" width="7.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E2" s="5" t="s">
+    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="20">
         <v>1</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E3" s="5" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8">
+      <c r="F3" s="4"/>
+      <c r="G3" s="21">
         <v>45823</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E4" s="5" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="6" spans="2:12" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-    </row>
-    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="B8" s="20" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="6" spans="2:12" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
+    <row r="10" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-    </row>
-    <row r="11" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-    </row>
-    <row r="12" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+    </row>
+    <row r="11" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+    </row>
+    <row r="12" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="16" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="17" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="17" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="17" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="16" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="17" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="17" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="16" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="4" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="4" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="4" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6318,187 +6313,187 @@
   <dimension ref="B1:L33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="13" max="13" width="3.88671875" customWidth="1"/>
-    <col min="14" max="14" width="7.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E2" s="5" t="s">
+    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="20">
         <v>1</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E3" s="5" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8">
+      <c r="F3" s="4"/>
+      <c r="G3" s="21">
         <v>45823</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E4" s="5" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="6" spans="2:12" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="6" spans="2:12" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="17" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="17" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="17" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="17" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="16" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="17" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="17" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="16" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="17" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="17" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6519,154 +6514,154 @@
   <dimension ref="B1:L26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="13" max="13" width="3.88671875" customWidth="1"/>
-    <col min="14" max="14" width="7.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E2" s="5" t="s">
+    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="20">
         <v>1</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E3" s="5" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8">
+      <c r="F3" s="4"/>
+      <c r="G3" s="21">
         <v>45823</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E4" s="5" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="6" spans="2:12" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="6" spans="2:12" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="16" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="17" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="16" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="17" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="17" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
         <v>81</v>
       </c>
     </row>
@@ -6687,149 +6682,149 @@
   <dimension ref="B1:L25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="13" max="13" width="3.88671875" customWidth="1"/>
-    <col min="14" max="14" width="7.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E2" s="5" t="s">
+    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="20">
         <v>1</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E3" s="5" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8">
+      <c r="F3" s="4"/>
+      <c r="G3" s="21">
         <v>45823</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E4" s="5" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="6" spans="2:12" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="6" spans="2:12" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="16" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="17" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="17" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="17" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
         <v>94</v>
       </c>
     </row>
@@ -6850,144 +6845,144 @@
   <dimension ref="B1:L24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="13" max="13" width="3.88671875" customWidth="1"/>
-    <col min="14" max="14" width="7.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E2" s="5" t="s">
+    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="20">
         <v>1</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E3" s="5" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8">
+      <c r="F3" s="4"/>
+      <c r="G3" s="21">
         <v>45823</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E4" s="5" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="6" spans="2:12" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="6" spans="2:12" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="16" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="17" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="17" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
         <v>103</v>
       </c>
     </row>
@@ -7007,233 +7002,233 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4520BC2F-514F-48FC-B851-2B06D6F6178E}">
   <dimension ref="B1:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="13" max="13" width="3.88671875" customWidth="1"/>
-    <col min="14" max="14" width="7.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E2" s="5" t="s">
+    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="20">
         <v>1</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E3" s="5" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8">
+      <c r="F3" s="4"/>
+      <c r="G3" s="21">
         <v>45823</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E4" s="5" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="6" spans="2:12" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-    </row>
-    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="6" spans="2:12" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="16"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="16" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="17" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="17" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="16" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="4" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="16" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="4" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="4" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="4" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="16"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="16"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="16"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="16"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="16"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="16"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="16"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="16"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="16"/>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="8"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="8"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="8"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="8"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="8"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7253,200 +7248,200 @@
   <dimension ref="B1:L31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="13" max="13" width="3.88671875" customWidth="1"/>
-    <col min="14" max="14" width="7.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E2" s="5" t="s">
+    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="20">
         <v>1</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E3" s="5" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8">
+      <c r="F3" s="4"/>
+      <c r="G3" s="21">
         <v>45823</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E4" s="5" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="6" spans="2:12" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-    </row>
-    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="6" spans="2:12" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="16" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="17" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="16" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="16" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="4" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="4" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="4" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
         <v>118</v>
       </c>
     </row>
@@ -7467,185 +7462,185 @@
   <dimension ref="B1:L30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="13" max="13" width="3.88671875" customWidth="1"/>
-    <col min="14" max="14" width="7.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E2" s="5" t="s">
+    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="20">
         <v>1</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E3" s="5" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8">
+      <c r="F3" s="4"/>
+      <c r="G3" s="21">
         <v>45823</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E4" s="5" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="6" spans="2:12" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-    </row>
-    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="6" spans="2:12" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="16" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="17" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="16" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="16" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="4" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="4" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
         <v>118</v>
       </c>
     </row>
@@ -7666,180 +7661,180 @@
   <dimension ref="B1:L31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="13" max="13" width="3.88671875" customWidth="1"/>
-    <col min="14" max="14" width="7.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E2" s="5" t="s">
+    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="20">
         <v>1</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E3" s="5" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8">
+      <c r="F3" s="4"/>
+      <c r="G3" s="21">
         <v>45823</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E4" s="5" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="6" spans="2:12" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-    </row>
-    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="6" spans="2:12" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="16" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="17" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="17" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="16" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="16" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="4" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="4" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="4" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
         <v>148</v>
       </c>
     </row>
